--- a/Projects/MONDELEZUSPS/Data/shelf_position.xlsx
+++ b/Projects/MONDELEZUSPS/Data/shelf_position.xlsx
@@ -8,7 +8,7 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="986" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="shelf_position" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="shelf_map" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -259,9 +259,6 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.3418367346939"/>
-  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="24.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
